--- a/Result/MS-SSIM.xlsx
+++ b/Result/MS-SSIM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\github\ELVC\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\github\STFE-VC\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9E17B6-53C3-4CB7-9FDF-04522A267E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482801E9-E178-44AA-8D24-24EDB9B58155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="2280" windowWidth="14685" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1605" windowWidth="38145" windowHeight="18570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
-  <si>
-    <t>ELVC(RES)</t>
-  </si>
-  <si>
-    <t>ELVC(CTX)</t>
-  </si>
   <si>
     <t>BPP</t>
   </si>
@@ -61,6 +55,14 @@
   </si>
   <si>
     <t>MCL-JCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STFE-VC(RES)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STFE-LVC(CTX)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,13 +118,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,530 +409,530 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>0.41086600000000001</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.98657300000000003</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>0.44506000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.98859399999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>0.286105</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.98395600000000005</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>0.30465199999999998</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.98578500000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>0.16422400000000001</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.978383</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>0.17575099999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.980653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>9.6880999999999995E-2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.97152499999999997</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>9.5510999999999999E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.97325899999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>0.41086600000000001</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.98657300000000003</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
-        <v>0.44506000000000001</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.98859399999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>0.286105</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.98395600000000005</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
-        <v>0.30465199999999998</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.98578500000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>0.16422400000000001</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.978383</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
-        <v>0.17575099999999999</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.980653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>9.6880999999999995E-2</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.97152499999999997</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
-        <v>9.5510999999999999E-2</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.97325899999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>0.35511199999999998</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>0.98816499999999996</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>0.34483999999999998</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>0.98974799999999996</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>0.250384</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>0.98503799999999997</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>0.24001400000000001</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>0.98669399999999996</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>0.16463900000000001</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>0.97876099999999999</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>0.15928999999999999</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>0.98118700000000003</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>0.111625</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>0.96986700000000003</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>0.103995</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>0.97250199999999998</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>0.29583799999999999</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>0.990726</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
         <v>0.27579700000000001</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>0.991595</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>0.21280299999999999</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>0.987649</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
         <v>0.19957</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>0.98871699999999996</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>0.143536</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>0.98177899999999996</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
         <v>0.13561100000000001</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>0.98333999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>9.7642999999999994E-2</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>0.97283900000000001</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
         <v>8.9721999999999996E-2</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>0.97449799999999998</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>0.25045000000000001</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>0.99332799999999999</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
         <v>0.24399399999999999</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>0.99351400000000001</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>0.14661399999999999</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>0.99129900000000004</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
         <v>0.13126299999999999</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>0.99126400000000003</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>6.0368999999999999E-2</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>0.98760300000000001</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
         <v>6.0016E-2</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="2">
         <v>0.98817900000000003</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>3.3800999999999998E-2</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>0.98406099999999996</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
         <v>2.9565999999999999E-2</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>0.98456399999999999</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>0.35533300000000001</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>0.98733000000000004</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
         <v>0.37734299999999998</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="2">
         <v>0.98935899999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>0.243976</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <v>0.98507199999999995</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
         <v>0.25856699999999999</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="2">
         <v>0.98688200000000004</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>0.14519000000000001</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2">
         <v>0.98016700000000001</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2">
         <v>0.16056599999999999</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="2">
         <v>0.98283699999999996</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>9.0473999999999999E-2</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <v>0.97456699999999996</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
         <v>9.2956999999999998E-2</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="2">
         <v>0.97684899999999997</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="A37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>0.31881700000000002</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2">
         <v>0.98926000000000003</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2">
         <v>0.32603700000000002</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="2">
         <v>0.99053400000000003</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>0.21757299999999999</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="2">
         <v>0.98710900000000001</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
         <v>0.22243299999999999</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="2">
         <v>0.988371</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>0.13100000000000001</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="2">
         <v>0.98303600000000002</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2">
         <v>0.14178299999999999</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="2">
         <v>0.98465000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>8.3802000000000001E-2</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="2">
         <v>0.977939</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2">
         <v>8.1195000000000003E-2</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="2">
         <v>0.9788</v>
       </c>
     </row>
